--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam23</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.201856021957</v>
+        <v>0.07730328688444445</v>
       </c>
       <c r="R2">
-        <v>1.816704197613</v>
+        <v>0.69572958196</v>
       </c>
       <c r="S2">
-        <v>0.0001370938820886924</v>
+        <v>2.488967435219291E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001370938820886923</v>
+        <v>2.488967435219291E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H3">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I3">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J3">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.06873842688933333</v>
+        <v>0.03191301724933333</v>
       </c>
       <c r="R3">
-        <v>0.618645842004</v>
+        <v>0.287217155244</v>
       </c>
       <c r="S3">
-        <v>4.668484843586145E-05</v>
+        <v>1.0275172491943E-05</v>
       </c>
       <c r="T3">
-        <v>4.668484843586144E-05</v>
+        <v>1.0275172491943E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H4">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I4">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J4">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>11.71494452953178</v>
+        <v>21.21134691360511</v>
       </c>
       <c r="R4">
-        <v>105.434500765786</v>
+        <v>190.902122222446</v>
       </c>
       <c r="S4">
-        <v>0.007956399855880082</v>
+        <v>0.006829509307155478</v>
       </c>
       <c r="T4">
-        <v>0.00795639985588008</v>
+        <v>0.006829509307155478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H5">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I5">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J5">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.2150875876321111</v>
+        <v>0.1336656384436667</v>
       </c>
       <c r="R5">
-        <v>1.935788288689</v>
+        <v>1.202990745993</v>
       </c>
       <c r="S5">
-        <v>0.0001460803204764403</v>
+        <v>4.30369049884512E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001460803204764403</v>
+        <v>4.303690498845119E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H6">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I6">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J6">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>26.82686777710223</v>
+        <v>14.90999723851256</v>
       </c>
       <c r="R6">
-        <v>241.44180999392</v>
+        <v>134.189975146613</v>
       </c>
       <c r="S6">
-        <v>0.01821991443300339</v>
+        <v>0.004800636438828445</v>
       </c>
       <c r="T6">
-        <v>0.01821991443300339</v>
+        <v>0.004800636438828445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J7">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>7.120530998137999</v>
+        <v>5.873545715582222</v>
       </c>
       <c r="R7">
-        <v>64.084778983242</v>
+        <v>52.86191144023999</v>
       </c>
       <c r="S7">
-        <v>0.00483602732087705</v>
+        <v>0.001891130973151116</v>
       </c>
       <c r="T7">
-        <v>0.00483602732087705</v>
+        <v>0.001891130973151117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J8">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>2.424768380370666</v>
@@ -948,10 +948,10 @@
         <v>21.822915423336</v>
       </c>
       <c r="S8">
-        <v>0.001646821864456137</v>
+        <v>0.0007807131856778076</v>
       </c>
       <c r="T8">
-        <v>0.001646821864456137</v>
+        <v>0.0007807131856778077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J9">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>413.2481402103915</v>
+        <v>1611.649656920391</v>
       </c>
       <c r="R9">
-        <v>3719.233261893523</v>
+        <v>14504.84691228352</v>
       </c>
       <c r="S9">
-        <v>0.2806643629360901</v>
+        <v>0.5189098257947928</v>
       </c>
       <c r="T9">
-        <v>0.2806643629360901</v>
+        <v>0.5189098257947929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J10">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>7.587278398736222</v>
+        <v>10.15598779357133</v>
       </c>
       <c r="R10">
-        <v>68.28550558862599</v>
+        <v>91.403890142142</v>
       </c>
       <c r="S10">
-        <v>0.005153026598294929</v>
+        <v>0.003269967411407739</v>
       </c>
       <c r="T10">
-        <v>0.005153026598294928</v>
+        <v>0.003269967411407739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J11">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>946.3257114543645</v>
+        <v>1132.869686776936</v>
       </c>
       <c r="R11">
-        <v>8516.93140308928</v>
+        <v>10195.82718099242</v>
       </c>
       <c r="S11">
-        <v>0.6427128814183171</v>
+        <v>0.3647549635178925</v>
       </c>
       <c r="T11">
-        <v>0.6427128814183171</v>
+        <v>0.3647549635178925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H12">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I12">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J12">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.005712267524000001</v>
+        <v>0.2457803112177778</v>
       </c>
       <c r="R12">
-        <v>0.051410407716</v>
+        <v>2.21202280096</v>
       </c>
       <c r="S12">
-        <v>3.879581707803322E-06</v>
+        <v>7.913495214680326E-05</v>
       </c>
       <c r="T12">
-        <v>3.879581707803321E-06</v>
+        <v>7.913495214680327E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H13">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I13">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J13">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.001945209658666667</v>
+        <v>0.1014651721493333</v>
       </c>
       <c r="R13">
-        <v>0.017506886928</v>
+        <v>0.9131865493440001</v>
       </c>
       <c r="S13">
-        <v>1.321121564754911E-06</v>
+        <v>3.266918128153083E-05</v>
       </c>
       <c r="T13">
-        <v>1.321121564754911E-06</v>
+        <v>3.266918128153083E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H14">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I14">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J14">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>0.3315179628168889</v>
+        <v>67.43997125978845</v>
       </c>
       <c r="R14">
-        <v>2.983661665352</v>
+        <v>606.959741338096</v>
       </c>
       <c r="S14">
-        <v>0.0002251559505833508</v>
+        <v>0.02171393986760938</v>
       </c>
       <c r="T14">
-        <v>0.0002251559505833508</v>
+        <v>0.02171393986760938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H15">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I15">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J15">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.006086703927555556</v>
+        <v>0.4249804056186668</v>
       </c>
       <c r="R15">
-        <v>0.054780335348</v>
+        <v>3.824823650568001</v>
       </c>
       <c r="S15">
-        <v>4.133886432830026E-06</v>
+        <v>0.0001368327832906155</v>
       </c>
       <c r="T15">
-        <v>4.133886432830026E-06</v>
+        <v>0.0001368327832906155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H16">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I16">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J16">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>0.7591660832711112</v>
+        <v>47.40527743685423</v>
       </c>
       <c r="R16">
-        <v>6.832494749440001</v>
+        <v>426.6474969316881</v>
       </c>
       <c r="S16">
-        <v>0.0005156003001380605</v>
+        <v>0.01526328265630434</v>
       </c>
       <c r="T16">
-        <v>0.0005156003001380605</v>
+        <v>0.01526328265630434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H17">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I17">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J17">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.2873350253099999</v>
+        <v>0.3810148447155555</v>
       </c>
       <c r="R17">
-        <v>2.58601522779</v>
+        <v>3.42913360244</v>
       </c>
       <c r="S17">
-        <v>0.0001951483720817205</v>
+        <v>0.0001226770010762613</v>
       </c>
       <c r="T17">
-        <v>0.0001951483720817204</v>
+        <v>0.0001226770010762613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H18">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I18">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J18">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.09784675947999999</v>
+        <v>0.1572938719906667</v>
       </c>
       <c r="R18">
-        <v>0.8806208353199998</v>
+        <v>1.415644847916</v>
       </c>
       <c r="S18">
-        <v>6.645425772716998E-05</v>
+        <v>5.064458976104695E-05</v>
       </c>
       <c r="T18">
-        <v>6.645425772716998E-05</v>
+        <v>5.064458976104696E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H19">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I19">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J19">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>16.67581601115333</v>
+        <v>104.5471463920549</v>
       </c>
       <c r="R19">
-        <v>150.08234410038</v>
+        <v>940.9243175284939</v>
       </c>
       <c r="S19">
-        <v>0.01132565841633789</v>
+        <v>0.03366149788739331</v>
       </c>
       <c r="T19">
-        <v>0.01132565841633789</v>
+        <v>0.03366149788739332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H20">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I20">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J20">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.3061696987633333</v>
+        <v>0.6588153560863333</v>
       </c>
       <c r="R20">
-        <v>2.75552728887</v>
+        <v>5.929338204777</v>
       </c>
       <c r="S20">
-        <v>0.0002079402545163221</v>
+        <v>0.0002121216358590894</v>
       </c>
       <c r="T20">
-        <v>0.000207940254516322</v>
+        <v>0.0002121216358590894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H21">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I21">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J21">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>38.18711305706667</v>
+        <v>73.48885812621745</v>
       </c>
       <c r="R21">
-        <v>343.6840175136</v>
+        <v>661.3997231359571</v>
       </c>
       <c r="S21">
-        <v>0.02593541438099025</v>
+        <v>0.02366152619112145</v>
       </c>
       <c r="T21">
-        <v>0.02593541438099025</v>
+        <v>0.02366152619112145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.223026</v>
+      </c>
+      <c r="I22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3331066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.99932</v>
+      </c>
+      <c r="O22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="P22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="Q22">
+        <v>0.02476381581333334</v>
+      </c>
+      <c r="R22">
+        <v>0.22287434232</v>
+      </c>
+      <c r="S22">
+        <v>7.97331311711121E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.97331311711121E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.223026</v>
+      </c>
+      <c r="I23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="P23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="Q23">
+        <v>0.010223214472</v>
+      </c>
+      <c r="R23">
+        <v>0.09200893024800001</v>
+      </c>
+      <c r="S23">
+        <v>3.291612676457987E-06</v>
+      </c>
+      <c r="T23">
+        <v>3.291612676457987E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.223026</v>
+      </c>
+      <c r="I24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.40156066666667</v>
+      </c>
+      <c r="N24">
+        <v>274.204682</v>
+      </c>
+      <c r="O24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="P24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="Q24">
+        <v>6.794974823081334</v>
+      </c>
+      <c r="R24">
+        <v>61.154773407732</v>
+      </c>
+      <c r="S24">
+        <v>0.002187807496861774</v>
+      </c>
+      <c r="T24">
+        <v>0.002187807496861774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.223026</v>
+      </c>
+      <c r="I25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5759770000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.727931</v>
+      </c>
+      <c r="O25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="P25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="Q25">
+        <v>0.04281928213400001</v>
+      </c>
+      <c r="R25">
+        <v>0.385373539206</v>
+      </c>
+      <c r="S25">
+        <v>1.378670987047501E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.378670987047501E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.223026</v>
+      </c>
+      <c r="I26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N26">
+        <v>192.745471</v>
+      </c>
+      <c r="O26">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P26">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q26">
+        <v>4.776361268360668</v>
+      </c>
+      <c r="R26">
+        <v>42.987251415246</v>
+      </c>
+      <c r="S26">
+        <v>0.001537865740891885</v>
+      </c>
+      <c r="T26">
+        <v>0.001537865740891885</v>
       </c>
     </row>
   </sheetData>
